--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephan\Desktop\Projects\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github projecten\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Datum</t>
   </si>
@@ -38,7 +38,10 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>Powerpoint LED-wall</t>
+    <t>Bespreking - regelingen rond website</t>
+  </si>
+  <si>
+    <t>Design template</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -379,7 +382,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,23 +409,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42267</v>
+        <v>42277</v>
       </c>
       <c r="B2" s="4">
-        <v>0.71875</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>0.71875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -38,10 +38,13 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>Bespreking - regelingen rond website</t>
+    <t>Design template</t>
   </si>
   <si>
-    <t>Design template</t>
+    <t>Bespreking rond website</t>
+  </si>
+  <si>
+    <t>Bespreking rond website / design template / layout</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,11 +418,11 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,14 +433,20 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github projecten\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Applications\XAMPP\htdocs\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Bespreking rond website / design template / layout</t>
+  </si>
+  <si>
+    <t>Design lay-out / Logo bewerken / Contact webhost + tekenaar</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,9 +453,15 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Design lay-out / Logo bewerken / Contact webhost + tekenaar</t>
+  </si>
+  <si>
+    <t>Aanpassen lay-out</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +428,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,15 +468,27 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1">
+        <v>42380</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Aanpassen lay-out</t>
+  </si>
+  <si>
+    <t>Layout</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,8 +430,8 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B30)</f>
-        <v>14</v>
+        <f>SUM(B2:B8)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,9 +495,15 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -53,7 +53,10 @@
     <t>Aanpassen lay-out</t>
   </si>
   <si>
-    <t>Layout</t>
+    <t>Layout / Rode diesel pagina</t>
+  </si>
+  <si>
+    <t>Layout / Rode diesel pagina / Website tijdelijk online zetten</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,8 +433,8 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>16</v>
+        <f>SUM(B2:B9)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,9 +510,15 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Layout / Rode diesel pagina / Website tijdelijk online zetten</t>
+  </si>
+  <si>
+    <t>Layout/ Website updaten</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +411,7 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -422,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42277</v>
       </c>
@@ -433,11 +436,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B9)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>SUM(B2:B10)</f>
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <f>D2*15</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42277</v>
       </c>
@@ -449,7 +456,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42282</v>
       </c>
@@ -461,7 +468,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42347</v>
       </c>
@@ -473,7 +480,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42378</v>
       </c>
@@ -485,7 +492,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42380</v>
       </c>
@@ -497,7 +504,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42381</v>
       </c>
@@ -509,7 +516,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42029</v>
       </c>
@@ -521,41 +528,47 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42033</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" s="2"/>
     </row>

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Layout/ Website updaten</t>
+  </si>
+  <si>
+    <t>Layout / website updaten / media query</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,12 +439,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>21</v>
+        <f>SUM(B2:B11)</f>
+        <v>24</v>
       </c>
       <c r="E2">
         <f>D2*15</f>
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +521,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42029</v>
+        <v>42394</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -530,7 +533,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42033</v>
+        <v>42398</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -541,9 +544,15 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Layout/ Website updaten</t>
-  </si>
-  <si>
-    <t>Layout / website updaten / media query</t>
   </si>
 </sst>
 </file>
@@ -400,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,12 +436,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>24</v>
+        <f>SUM(B2:B10)</f>
+        <v>21</v>
       </c>
       <c r="E2">
         <f>D2*15</f>
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,15 +541,9 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42399</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,8 +560,6 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,6 +568,8 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,12 +650,6 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Uren Grenspoal - Dominic.xlsx
+++ b/Uren Grenspoal - Dominic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Layout/ Website updaten</t>
+  </si>
+  <si>
+    <t>Portaal styling</t>
+  </si>
+  <si>
+    <t>Foto's kentekens photoshop / Foto's plaatsen</t>
+  </si>
+  <si>
+    <t>Carousel slider styling</t>
+  </si>
+  <si>
+    <t>Merge webhost / Spelfouten en tekst aanpassen</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,12 +448,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>21</v>
+        <f>SUM(B:B)</f>
+        <v>27</v>
       </c>
       <c r="E2">
         <f>D2*15</f>
-        <v>315</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,69 +553,95 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1">
+        <v>42402</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
